--- a/avanceObjetivosImperquimia.xlsx
+++ b/avanceObjetivosImperquimia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dpromontor\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA68879C-F9F8-49E4-8B78-9A962A7633A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D10D372-E074-4C15-9869-BC3C06D2BB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AC99DC8A-3054-436B-86FB-C8C18B20CEF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="784">
   <si>
     <t>Nombre del departamento</t>
   </si>
@@ -2390,6 +2390,9 @@
   </si>
   <si>
     <t>Aun no tiene objetivo registrado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDRES CONDADO </t>
   </si>
 </sst>
 </file>
@@ -2425,7 +2428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2433,26 +2436,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2468,21 +2467,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D52C77C7-C55B-4ACE-817C-7BA21930C709}" name="Tabla1" displayName="Tabla1" ref="A1:D926" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:D926" xr:uid="{D52C77C7-C55B-4ACE-817C-7BA21930C709}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="CRISTINA VIANEY GUDIÃ‘O"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D52C77C7-C55B-4ACE-817C-7BA21930C709}" name="Tabla1" displayName="Tabla1" ref="A1:D926" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:D926" xr:uid="{D52C77C7-C55B-4ACE-817C-7BA21930C709}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D926">
     <sortCondition ref="B1:B926"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="6" xr3:uid="{A4FCD698-9417-4D4E-A006-2D79A7B3D831}" name="Nombre del departamento" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{77979967-BE0F-419C-A1BB-D455ED813A1C}" name="Propietario" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{2400174F-6BE0-44B7-AE30-36ABB0D2E434}" name="Nombre del objetivo" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{A4FCD698-9417-4D4E-A006-2D79A7B3D831}" name="Nombre del departamento" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{77979967-BE0F-419C-A1BB-D455ED813A1C}" name="Propietario" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{2400174F-6BE0-44B7-AE30-36ABB0D2E434}" name="Nombre del objetivo" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{EF2EF445-6E13-42B1-9855-D82238541C30}" name="Promedio de realizacion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2808,20 +2801,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0703C58-B96D-40DF-BA0D-4BC9D7EEFCAC}">
   <dimension ref="A1:H926"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D171" sqref="D171"/>
+    <sheetView tabSelected="1" topLeftCell="A919" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A930" sqref="A930"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="3" width="95.42578125" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2838,7 +2831,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>766</v>
       </c>
@@ -2852,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>766</v>
       </c>
@@ -2866,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>766</v>
       </c>
@@ -2880,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>766</v>
       </c>
@@ -2894,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>762</v>
       </c>
@@ -2908,7 +2901,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>762</v>
       </c>
@@ -2922,7 +2915,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>762</v>
       </c>
@@ -2936,7 +2929,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>762</v>
       </c>
@@ -2950,7 +2943,7 @@
         <v>44.55</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>765</v>
       </c>
@@ -2964,7 +2957,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>765</v>
       </c>
@@ -2978,7 +2971,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>765</v>
       </c>
@@ -2992,7 +2985,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>765</v>
       </c>
@@ -3006,7 +2999,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>779</v>
       </c>
@@ -3020,7 +3013,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>779</v>
       </c>
@@ -3034,7 +3027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>779</v>
       </c>
@@ -3048,7 +3041,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>779</v>
       </c>
@@ -3062,7 +3055,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>779</v>
       </c>
@@ -3076,7 +3069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>762</v>
       </c>
@@ -3090,7 +3083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>762</v>
       </c>
@@ -3104,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>762</v>
       </c>
@@ -3118,7 +3111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>762</v>
       </c>
@@ -3132,7 +3125,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>762</v>
       </c>
@@ -3146,7 +3139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>762</v>
       </c>
@@ -3160,7 +3153,7 @@
         <v>94.736840000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>762</v>
       </c>
@@ -3174,7 +3167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>762</v>
       </c>
@@ -3188,7 +3181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>762</v>
       </c>
@@ -3202,7 +3195,7 @@
         <v>88.9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>763</v>
       </c>
@@ -3216,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>763</v>
       </c>
@@ -3230,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>763</v>
       </c>
@@ -3244,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>763</v>
       </c>
@@ -3258,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>768</v>
       </c>
@@ -3272,7 +3265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>768</v>
       </c>
@@ -3286,7 +3279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>768</v>
       </c>
@@ -3300,7 +3293,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>768</v>
       </c>
@@ -3314,7 +3307,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>768</v>
       </c>
@@ -3328,7 +3321,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>762</v>
       </c>
@@ -3342,7 +3335,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>762</v>
       </c>
@@ -3356,7 +3349,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>762</v>
       </c>
@@ -3370,7 +3363,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>762</v>
       </c>
@@ -3384,7 +3377,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>773</v>
       </c>
@@ -3398,7 +3391,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>773</v>
       </c>
@@ -3412,7 +3405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>773</v>
       </c>
@@ -3426,7 +3419,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>773</v>
       </c>
@@ -3440,7 +3433,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>762</v>
       </c>
@@ -3454,7 +3447,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>762</v>
       </c>
@@ -3468,7 +3461,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>762</v>
       </c>
@@ -3482,7 +3475,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>762</v>
       </c>
@@ -3496,7 +3489,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>762</v>
       </c>
@@ -3510,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>762</v>
       </c>
@@ -3524,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>762</v>
       </c>
@@ -3538,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>762</v>
       </c>
@@ -3552,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>762</v>
       </c>
@@ -3566,7 +3559,7 @@
         <v>5.7142799999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>762</v>
       </c>
@@ -3580,7 +3573,7 @@
         <v>33.333329999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>762</v>
       </c>
@@ -3594,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>762</v>
       </c>
@@ -3608,7 +3601,7 @@
         <v>12.424239999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>764</v>
       </c>
@@ -3622,7 +3615,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>764</v>
       </c>
@@ -3636,7 +3629,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>764</v>
       </c>
@@ -3650,7 +3643,7 @@
         <v>22.725000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>764</v>
       </c>
@@ -3664,7 +3657,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>762</v>
       </c>
@@ -3678,7 +3671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>762</v>
       </c>
@@ -3692,7 +3685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>762</v>
       </c>
@@ -3706,7 +3699,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>762</v>
       </c>
@@ -3720,7 +3713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>762</v>
       </c>
@@ -3734,7 +3727,7 @@
         <v>70.3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>762</v>
       </c>
@@ -3748,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>762</v>
       </c>
@@ -3762,7 +3755,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>762</v>
       </c>
@@ -3776,7 +3769,7 @@
         <v>17.716529999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>762</v>
       </c>
@@ -3790,7 +3783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>762</v>
       </c>
@@ -3804,7 +3797,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>762</v>
       </c>
@@ -3818,7 +3811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>762</v>
       </c>
@@ -3832,7 +3825,7 @@
         <v>44.55</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>761</v>
       </c>
@@ -3846,7 +3839,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>761</v>
       </c>
@@ -3860,7 +3853,7 @@
         <v>31.578939999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>761</v>
       </c>
@@ -3874,7 +3867,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>761</v>
       </c>
@@ -3888,7 +3881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>761</v>
       </c>
@@ -3902,7 +3895,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>768</v>
       </c>
@@ -3916,7 +3909,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>768</v>
       </c>
@@ -3930,7 +3923,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>768</v>
       </c>
@@ -3944,7 +3937,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>768</v>
       </c>
@@ -3958,7 +3951,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>768</v>
       </c>
@@ -3972,7 +3965,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>762</v>
       </c>
@@ -3986,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>762</v>
       </c>
@@ -4000,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>762</v>
       </c>
@@ -4014,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>762</v>
       </c>
@@ -4028,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>762</v>
       </c>
@@ -4042,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>762</v>
       </c>
@@ -4056,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>762</v>
       </c>
@@ -4070,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>762</v>
       </c>
@@ -4084,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>762</v>
       </c>
@@ -4098,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>762</v>
       </c>
@@ -4112,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>760</v>
       </c>
@@ -4126,7 +4119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>760</v>
       </c>
@@ -4140,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>760</v>
       </c>
@@ -4154,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>760</v>
       </c>
@@ -4168,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>762</v>
       </c>
@@ -4182,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>762</v>
       </c>
@@ -4196,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>762</v>
       </c>
@@ -4210,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>762</v>
       </c>
@@ -4224,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>770</v>
       </c>
@@ -4238,7 +4231,7 @@
         <v>99.03</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>770</v>
       </c>
@@ -4252,7 +4245,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>770</v>
       </c>
@@ -4266,7 +4259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>770</v>
       </c>
@@ -4280,7 +4273,7 @@
         <v>66.666659999999993</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>762</v>
       </c>
@@ -4294,7 +4287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>762</v>
       </c>
@@ -4308,7 +4301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>762</v>
       </c>
@@ -4322,7 +4315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>762</v>
       </c>
@@ -4336,7 +4329,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>765</v>
       </c>
@@ -4350,7 +4343,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>765</v>
       </c>
@@ -4364,7 +4357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>765</v>
       </c>
@@ -4378,7 +4371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>765</v>
       </c>
@@ -4392,7 +4385,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>761</v>
       </c>
@@ -4406,7 +4399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>761</v>
       </c>
@@ -4420,7 +4413,7 @@
         <v>26.31578</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>761</v>
       </c>
@@ -4434,7 +4427,7 @@
         <v>68.88888</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>761</v>
       </c>
@@ -4448,7 +4441,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>760</v>
       </c>
@@ -4462,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>760</v>
       </c>
@@ -4476,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>760</v>
       </c>
@@ -4490,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>760</v>
       </c>
@@ -4504,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>760</v>
       </c>
@@ -4518,7 +4511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>760</v>
       </c>
@@ -4532,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>760</v>
       </c>
@@ -4546,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>760</v>
       </c>
@@ -4560,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>779</v>
       </c>
@@ -4574,7 +4567,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>779</v>
       </c>
@@ -4588,7 +4581,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>779</v>
       </c>
@@ -4602,7 +4595,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>779</v>
       </c>
@@ -4616,7 +4609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>779</v>
       </c>
@@ -4630,7 +4623,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>778</v>
       </c>
@@ -4644,7 +4637,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>778</v>
       </c>
@@ -4658,7 +4651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>778</v>
       </c>
@@ -4672,7 +4665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>778</v>
       </c>
@@ -4686,7 +4679,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>766</v>
       </c>
@@ -4700,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>766</v>
       </c>
@@ -4714,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>766</v>
       </c>
@@ -4728,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>766</v>
       </c>
@@ -4742,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>762</v>
       </c>
@@ -4756,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>762</v>
       </c>
@@ -4770,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>762</v>
       </c>
@@ -4784,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>762</v>
       </c>
@@ -4798,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>762</v>
       </c>
@@ -4812,7 +4805,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>762</v>
       </c>
@@ -4826,7 +4819,7 @@
         <v>11.11111</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>762</v>
       </c>
@@ -4840,7 +4833,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>762</v>
       </c>
@@ -4854,7 +4847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>763</v>
       </c>
@@ -4868,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>763</v>
       </c>
@@ -4882,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>763</v>
       </c>
@@ -4896,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>763</v>
       </c>
@@ -4910,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>767</v>
       </c>
@@ -4924,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>767</v>
       </c>
@@ -4938,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>767</v>
       </c>
@@ -4952,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>767</v>
       </c>
@@ -4966,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>768</v>
       </c>
@@ -4980,7 +4973,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>768</v>
       </c>
@@ -4994,7 +4987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>768</v>
       </c>
@@ -5008,7 +5001,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>768</v>
       </c>
@@ -5022,7 +5015,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>768</v>
       </c>
@@ -5036,7 +5029,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>768</v>
       </c>
@@ -5050,7 +5043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>768</v>
       </c>
@@ -5064,7 +5057,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>768</v>
       </c>
@@ -5078,7 +5071,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>768</v>
       </c>
@@ -5092,7 +5085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>768</v>
       </c>
@@ -5106,7 +5099,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>762</v>
       </c>
@@ -5120,7 +5113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>762</v>
       </c>
@@ -5134,7 +5127,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>762</v>
       </c>
@@ -5148,7 +5141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>762</v>
       </c>
@@ -5218,7 +5211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>764</v>
       </c>
@@ -5232,7 +5225,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>764</v>
       </c>
@@ -5246,7 +5239,7 @@
         <v>77.777770000000004</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>764</v>
       </c>
@@ -5260,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>764</v>
       </c>
@@ -5274,7 +5267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>764</v>
       </c>
@@ -5288,7 +5281,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>773</v>
       </c>
@@ -5302,7 +5295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>773</v>
       </c>
@@ -5316,7 +5309,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>773</v>
       </c>
@@ -5330,7 +5323,7 @@
         <v>70.666659999999993</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>773</v>
       </c>
@@ -5344,7 +5337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>770</v>
       </c>
@@ -5358,7 +5351,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>770</v>
       </c>
@@ -5372,7 +5365,7 @@
         <v>33.333329999999997</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>770</v>
       </c>
@@ -5386,7 +5379,7 @@
         <v>93.333330000000004</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>770</v>
       </c>
@@ -5400,7 +5393,7 @@
         <v>72.222219999999993</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>766</v>
       </c>
@@ -5414,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>766</v>
       </c>
@@ -5428,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>766</v>
       </c>
@@ -5442,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>766</v>
       </c>
@@ -5456,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>762</v>
       </c>
@@ -5470,7 +5463,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>762</v>
       </c>
@@ -5484,7 +5477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>762</v>
       </c>
@@ -5498,7 +5491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>762</v>
       </c>
@@ -5512,7 +5505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>768</v>
       </c>
@@ -5526,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>768</v>
       </c>
@@ -5540,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>768</v>
       </c>
@@ -5554,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>768</v>
       </c>
@@ -5568,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>768</v>
       </c>
@@ -5582,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>775</v>
       </c>
@@ -5596,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>775</v>
       </c>
@@ -5610,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>775</v>
       </c>
@@ -5624,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>775</v>
       </c>
@@ -5638,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>764</v>
       </c>
@@ -5652,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>764</v>
       </c>
@@ -5666,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>764</v>
       </c>
@@ -5680,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>764</v>
       </c>
@@ -5694,7 +5687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>760</v>
       </c>
@@ -5708,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>760</v>
       </c>
@@ -5722,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>760</v>
       </c>
@@ -5736,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>760</v>
       </c>
@@ -5750,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>764</v>
       </c>
@@ -5764,7 +5757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>764</v>
       </c>
@@ -5778,7 +5771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>764</v>
       </c>
@@ -5792,7 +5785,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>764</v>
       </c>
@@ -5806,7 +5799,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>762</v>
       </c>
@@ -5820,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>762</v>
       </c>
@@ -5834,7 +5827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>762</v>
       </c>
@@ -5848,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>762</v>
       </c>
@@ -5862,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>762</v>
       </c>
@@ -5876,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>762</v>
       </c>
@@ -5890,7 +5883,7 @@
         <v>15.38461</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>762</v>
       </c>
@@ -5904,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>762</v>
       </c>
@@ -5918,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>762</v>
       </c>
@@ -5932,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>762</v>
       </c>
@@ -5946,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>762</v>
       </c>
@@ -5960,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>762</v>
       </c>
@@ -5974,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>763</v>
       </c>
@@ -5988,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>763</v>
       </c>
@@ -6002,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>763</v>
       </c>
@@ -6016,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>763</v>
       </c>
@@ -6030,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>762</v>
       </c>
@@ -6044,7 +6037,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>762</v>
       </c>
@@ -6058,7 +6051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>762</v>
       </c>
@@ -6072,7 +6065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>762</v>
       </c>
@@ -6086,7 +6079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>762</v>
       </c>
@@ -6100,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>762</v>
       </c>
@@ -6114,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>762</v>
       </c>
@@ -6128,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>762</v>
       </c>
@@ -6142,7 +6135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>762</v>
       </c>
@@ -6156,7 +6149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>762</v>
       </c>
@@ -6170,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>762</v>
       </c>
@@ -6184,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>762</v>
       </c>
@@ -6198,7 +6191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>762</v>
       </c>
@@ -6212,7 +6205,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>762</v>
       </c>
@@ -6226,7 +6219,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>762</v>
       </c>
@@ -6240,7 +6233,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>762</v>
       </c>
@@ -6254,7 +6247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>773</v>
       </c>
@@ -6268,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>773</v>
       </c>
@@ -6282,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>773</v>
       </c>
@@ -6296,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>773</v>
       </c>
@@ -6310,7 +6303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>762</v>
       </c>
@@ -6324,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>762</v>
       </c>
@@ -6338,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>762</v>
       </c>
@@ -6352,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>762</v>
       </c>
@@ -6366,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>762</v>
       </c>
@@ -6380,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>762</v>
       </c>
@@ -6394,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>762</v>
       </c>
@@ -6408,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>762</v>
       </c>
@@ -6422,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>769</v>
       </c>
@@ -6436,7 +6429,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>769</v>
       </c>
@@ -6450,7 +6443,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>769</v>
       </c>
@@ -6464,7 +6457,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>769</v>
       </c>
@@ -6478,7 +6471,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>769</v>
       </c>
@@ -6492,7 +6485,7 @@
         <v>97.777770000000004</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>769</v>
       </c>
@@ -6506,7 +6499,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>769</v>
       </c>
@@ -6520,7 +6513,7 @@
         <v>83.333330000000004</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>769</v>
       </c>
@@ -6534,7 +6527,7 @@
         <v>66.666659999999993</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>762</v>
       </c>
@@ -6548,7 +6541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>762</v>
       </c>
@@ -6562,7 +6555,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>762</v>
       </c>
@@ -6576,7 +6569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>762</v>
       </c>
@@ -6590,7 +6583,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>762</v>
       </c>
@@ -6604,7 +6597,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>762</v>
       </c>
@@ -6618,7 +6611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>762</v>
       </c>
@@ -6632,7 +6625,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>762</v>
       </c>
@@ -6646,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>762</v>
       </c>
@@ -6660,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>762</v>
       </c>
@@ -6674,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>762</v>
       </c>
@@ -6688,7 +6681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>768</v>
       </c>
@@ -6702,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>768</v>
       </c>
@@ -6716,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>768</v>
       </c>
@@ -6730,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>768</v>
       </c>
@@ -6744,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>762</v>
       </c>
@@ -6758,7 +6751,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>762</v>
       </c>
@@ -6772,7 +6765,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>762</v>
       </c>
@@ -6786,7 +6779,7 @@
         <v>33.333329999999997</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>762</v>
       </c>
@@ -6800,7 +6793,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>770</v>
       </c>
@@ -6814,7 +6807,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>770</v>
       </c>
@@ -6828,7 +6821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>770</v>
       </c>
@@ -6842,7 +6835,7 @@
         <v>66.666659999999993</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>770</v>
       </c>
@@ -6856,7 +6849,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>762</v>
       </c>
@@ -6870,7 +6863,7 @@
         <v>94.44444</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>762</v>
       </c>
@@ -6884,7 +6877,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>762</v>
       </c>
@@ -6898,7 +6891,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>762</v>
       </c>
@@ -6912,7 +6905,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>779</v>
       </c>
@@ -6926,7 +6919,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>779</v>
       </c>
@@ -6940,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>779</v>
       </c>
@@ -6954,7 +6947,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>779</v>
       </c>
@@ -6968,7 +6961,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>779</v>
       </c>
@@ -6982,7 +6975,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>777</v>
       </c>
@@ -6996,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>777</v>
       </c>
@@ -7010,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>777</v>
       </c>
@@ -7024,7 +7017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>777</v>
       </c>
@@ -7038,7 +7031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>766</v>
       </c>
@@ -7052,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>766</v>
       </c>
@@ -7066,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>766</v>
       </c>
@@ -7080,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>766</v>
       </c>
@@ -7094,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>766</v>
       </c>
@@ -7108,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>760</v>
       </c>
@@ -7122,7 +7115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>760</v>
       </c>
@@ -7136,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>760</v>
       </c>
@@ -7150,7 +7143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>760</v>
       </c>
@@ -7164,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>762</v>
       </c>
@@ -7178,7 +7171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>762</v>
       </c>
@@ -7192,7 +7185,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>762</v>
       </c>
@@ -7206,7 +7199,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>762</v>
       </c>
@@ -7220,7 +7213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>762</v>
       </c>
@@ -7234,7 +7227,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>762</v>
       </c>
@@ -7248,7 +7241,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>762</v>
       </c>
@@ -7262,7 +7255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>762</v>
       </c>
@@ -7276,7 +7269,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>766</v>
       </c>
@@ -7290,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>766</v>
       </c>
@@ -7304,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>766</v>
       </c>
@@ -7318,7 +7311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>766</v>
       </c>
@@ -7332,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>768</v>
       </c>
@@ -7346,7 +7339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>768</v>
       </c>
@@ -7360,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>768</v>
       </c>
@@ -7374,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>768</v>
       </c>
@@ -7388,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>768</v>
       </c>
@@ -7402,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>768</v>
       </c>
@@ -7416,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>768</v>
       </c>
@@ -7430,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>768</v>
       </c>
@@ -7444,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>773</v>
       </c>
@@ -7458,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>773</v>
       </c>
@@ -7472,7 +7465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>773</v>
       </c>
@@ -7486,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>773</v>
       </c>
@@ -7500,7 +7493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>762</v>
       </c>
@@ -7514,7 +7507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>762</v>
       </c>
@@ -7528,7 +7521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>762</v>
       </c>
@@ -7542,7 +7535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>762</v>
       </c>
@@ -7556,7 +7549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>762</v>
       </c>
@@ -7570,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>762</v>
       </c>
@@ -7584,7 +7577,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>762</v>
       </c>
@@ -7598,7 +7591,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>762</v>
       </c>
@@ -7612,7 +7605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>762</v>
       </c>
@@ -7626,7 +7619,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>764</v>
       </c>
@@ -7640,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>764</v>
       </c>
@@ -7654,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>764</v>
       </c>
@@ -7668,7 +7661,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>764</v>
       </c>
@@ -7682,7 +7675,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>764</v>
       </c>
@@ -7696,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>764</v>
       </c>
@@ -7710,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>764</v>
       </c>
@@ -7724,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>764</v>
       </c>
@@ -7738,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>764</v>
       </c>
@@ -7752,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>766</v>
       </c>
@@ -7766,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>766</v>
       </c>
@@ -7780,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>766</v>
       </c>
@@ -7794,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>766</v>
       </c>
@@ -7808,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>762</v>
       </c>
@@ -7822,7 +7815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>762</v>
       </c>
@@ -7836,7 +7829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>762</v>
       </c>
@@ -7850,7 +7843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>762</v>
       </c>
@@ -7864,7 +7857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>762</v>
       </c>
@@ -7878,7 +7871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>762</v>
       </c>
@@ -7892,7 +7885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>762</v>
       </c>
@@ -7906,7 +7899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>762</v>
       </c>
@@ -7920,7 +7913,7 @@
         <v>11.811019999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>762</v>
       </c>
@@ -7934,7 +7927,7 @@
         <v>92.1</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>762</v>
       </c>
@@ -7948,7 +7941,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>762</v>
       </c>
@@ -7962,7 +7955,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>762</v>
       </c>
@@ -7976,7 +7969,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>762</v>
       </c>
@@ -7990,7 +7983,7 @@
         <v>89.473680000000002</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>762</v>
       </c>
@@ -8004,7 +7997,7 @@
         <v>96.938770000000005</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>762</v>
       </c>
@@ -8018,7 +8011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>762</v>
       </c>
@@ -8032,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>762</v>
       </c>
@@ -8046,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>762</v>
       </c>
@@ -8060,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>762</v>
       </c>
@@ -8074,7 +8067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>773</v>
       </c>
@@ -8088,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>773</v>
       </c>
@@ -8102,7 +8095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>773</v>
       </c>
@@ -8116,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>773</v>
       </c>
@@ -8130,7 +8123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>762</v>
       </c>
@@ -8144,7 +8137,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>762</v>
       </c>
@@ -8158,7 +8151,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>762</v>
       </c>
@@ -8172,7 +8165,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>762</v>
       </c>
@@ -8186,7 +8179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>762</v>
       </c>
@@ -8200,7 +8193,7 @@
         <v>95.94</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>762</v>
       </c>
@@ -8214,7 +8207,7 @@
         <v>97.959180000000003</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>762</v>
       </c>
@@ -8228,7 +8221,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>762</v>
       </c>
@@ -8242,7 +8235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>762</v>
       </c>
@@ -8256,7 +8249,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>762</v>
       </c>
@@ -8270,7 +8263,7 @@
         <v>84.210520000000002</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>762</v>
       </c>
@@ -8284,7 +8277,7 @@
         <v>97.894729999999996</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>762</v>
       </c>
@@ -8298,7 +8291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>762</v>
       </c>
@@ -8312,7 +8305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>762</v>
       </c>
@@ -8326,7 +8319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>762</v>
       </c>
@@ -8340,7 +8333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>762</v>
       </c>
@@ -8354,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>762</v>
       </c>
@@ -8368,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>767</v>
       </c>
@@ -8382,7 +8375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>767</v>
       </c>
@@ -8396,7 +8389,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>767</v>
       </c>
@@ -8410,7 +8403,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>767</v>
       </c>
@@ -8424,7 +8417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>769</v>
       </c>
@@ -8438,7 +8431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>769</v>
       </c>
@@ -8452,7 +8445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>769</v>
       </c>
@@ -8466,7 +8459,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>769</v>
       </c>
@@ -8480,7 +8473,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>772</v>
       </c>
@@ -8494,7 +8487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>772</v>
       </c>
@@ -8508,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>772</v>
       </c>
@@ -8522,7 +8515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>772</v>
       </c>
@@ -8536,7 +8529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>760</v>
       </c>
@@ -8550,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>760</v>
       </c>
@@ -8564,7 +8557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>760</v>
       </c>
@@ -8578,7 +8571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>760</v>
       </c>
@@ -8592,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>762</v>
       </c>
@@ -8606,7 +8599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>762</v>
       </c>
@@ -8620,7 +8613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>762</v>
       </c>
@@ -8634,7 +8627,7 @@
         <v>73.684209999999993</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>762</v>
       </c>
@@ -8648,7 +8641,7 @@
         <v>96.938770000000005</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>762</v>
       </c>
@@ -8662,7 +8655,7 @@
         <v>83.333330000000004</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>760</v>
       </c>
@@ -8676,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>760</v>
       </c>
@@ -8690,7 +8683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>760</v>
       </c>
@@ -8704,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>760</v>
       </c>
@@ -8718,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>762</v>
       </c>
@@ -8732,7 +8725,7 @@
         <v>92.4</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>762</v>
       </c>
@@ -8746,7 +8739,7 @@
         <v>94.736840000000001</v>
       </c>
     </row>
-    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>762</v>
       </c>
@@ -8760,7 +8753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>762</v>
       </c>
@@ -8774,7 +8767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>762</v>
       </c>
@@ -8788,7 +8781,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>772</v>
       </c>
@@ -8802,7 +8795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>772</v>
       </c>
@@ -8816,7 +8809,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>772</v>
       </c>
@@ -8830,7 +8823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>772</v>
       </c>
@@ -8844,7 +8837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>766</v>
       </c>
@@ -8858,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>766</v>
       </c>
@@ -8872,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>766</v>
       </c>
@@ -8886,7 +8879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>766</v>
       </c>
@@ -8900,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>766</v>
       </c>
@@ -8914,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>766</v>
       </c>
@@ -8928,7 +8921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>764</v>
       </c>
@@ -8942,7 +8935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>764</v>
       </c>
@@ -8956,7 +8949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>764</v>
       </c>
@@ -8970,7 +8963,7 @@
         <v>33.25</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>764</v>
       </c>
@@ -8984,7 +8977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>764</v>
       </c>
@@ -8998,7 +8991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>764</v>
       </c>
@@ -9012,7 +9005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>764</v>
       </c>
@@ -9026,7 +9019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>769</v>
       </c>
@@ -9040,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>769</v>
       </c>
@@ -9054,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>769</v>
       </c>
@@ -9068,7 +9061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>769</v>
       </c>
@@ -9082,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>760</v>
       </c>
@@ -9096,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>760</v>
       </c>
@@ -9110,7 +9103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>760</v>
       </c>
@@ -9124,7 +9117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>760</v>
       </c>
@@ -9138,7 +9131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>773</v>
       </c>
@@ -9152,7 +9145,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>773</v>
       </c>
@@ -9166,7 +9159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>773</v>
       </c>
@@ -9180,7 +9173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>773</v>
       </c>
@@ -9194,7 +9187,7 @@
         <v>66.666659999999993</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>766</v>
       </c>
@@ -9208,7 +9201,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>766</v>
       </c>
@@ -9222,7 +9215,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>766</v>
       </c>
@@ -9236,7 +9229,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>766</v>
       </c>
@@ -9250,7 +9243,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>766</v>
       </c>
@@ -9264,7 +9257,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>762</v>
       </c>
@@ -9278,7 +9271,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>762</v>
       </c>
@@ -9292,7 +9285,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>762</v>
       </c>
@@ -9306,7 +9299,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>762</v>
       </c>
@@ -9320,7 +9313,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>773</v>
       </c>
@@ -9334,7 +9327,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>773</v>
       </c>
@@ -9348,7 +9341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>773</v>
       </c>
@@ -9362,7 +9355,7 @@
         <v>95.555549999999997</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>773</v>
       </c>
@@ -9376,7 +9369,7 @@
         <v>94.791659999999993</v>
       </c>
     </row>
-    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>766</v>
       </c>
@@ -9390,7 +9383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>766</v>
       </c>
@@ -9404,7 +9397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>766</v>
       </c>
@@ -9418,7 +9411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>766</v>
       </c>
@@ -9432,7 +9425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>763</v>
       </c>
@@ -9446,7 +9439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>763</v>
       </c>
@@ -9460,7 +9453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>763</v>
       </c>
@@ -9474,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
         <v>763</v>
       </c>
@@ -9488,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
         <v>764</v>
       </c>
@@ -9502,7 +9495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
         <v>764</v>
       </c>
@@ -9516,7 +9509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>764</v>
       </c>
@@ -9530,7 +9523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
         <v>764</v>
       </c>
@@ -9544,7 +9537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>768</v>
       </c>
@@ -9558,7 +9551,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
         <v>768</v>
       </c>
@@ -9572,7 +9565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>768</v>
       </c>
@@ -9586,7 +9579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>768</v>
       </c>
@@ -9600,7 +9593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
         <v>768</v>
       </c>
@@ -9614,7 +9607,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>762</v>
       </c>
@@ -9628,7 +9621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>762</v>
       </c>
@@ -9642,7 +9635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>762</v>
       </c>
@@ -9656,7 +9649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>762</v>
       </c>
@@ -9670,7 +9663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>762</v>
       </c>
@@ -9684,7 +9677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>762</v>
       </c>
@@ -9698,7 +9691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>762</v>
       </c>
@@ -9712,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>762</v>
       </c>
@@ -9726,7 +9719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>779</v>
       </c>
@@ -9740,7 +9733,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>779</v>
       </c>
@@ -9754,7 +9747,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>779</v>
       </c>
@@ -9768,7 +9761,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>779</v>
       </c>
@@ -9782,7 +9775,7 @@
         <v>83.333330000000004</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>779</v>
       </c>
@@ -9796,7 +9789,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>760</v>
       </c>
@@ -9810,7 +9803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>760</v>
       </c>
@@ -9824,7 +9817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>760</v>
       </c>
@@ -9838,7 +9831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>760</v>
       </c>
@@ -9852,7 +9845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>762</v>
       </c>
@@ -9866,7 +9859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
         <v>762</v>
       </c>
@@ -9880,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>762</v>
       </c>
@@ -9894,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>762</v>
       </c>
@@ -9908,7 +9901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>762</v>
       </c>
@@ -9922,7 +9915,7 @@
         <v>57.142850000000003</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>762</v>
       </c>
@@ -9936,7 +9929,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>762</v>
       </c>
@@ -9950,7 +9943,7 @@
         <v>61.946899999999999</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>762</v>
       </c>
@@ -9964,7 +9957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>762</v>
       </c>
@@ -9978,7 +9971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>762</v>
       </c>
@@ -9992,7 +9985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>762</v>
       </c>
@@ -10006,7 +9999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>762</v>
       </c>
@@ -10020,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>762</v>
       </c>
@@ -10034,7 +10027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>762</v>
       </c>
@@ -10048,7 +10041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
         <v>762</v>
       </c>
@@ -10062,7 +10055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
         <v>762</v>
       </c>
@@ -10076,7 +10069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>768</v>
       </c>
@@ -10090,7 +10083,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
         <v>768</v>
       </c>
@@ -10104,7 +10097,7 @@
         <v>11.11111</v>
       </c>
     </row>
-    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>768</v>
       </c>
@@ -10118,7 +10111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>768</v>
       </c>
@@ -10132,7 +10125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>768</v>
       </c>
@@ -10146,7 +10139,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
         <v>761</v>
       </c>
@@ -10160,7 +10153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
         <v>761</v>
       </c>
@@ -10174,7 +10167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>761</v>
       </c>
@@ -10188,7 +10181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
         <v>761</v>
       </c>
@@ -10202,7 +10195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>761</v>
       </c>
@@ -10216,7 +10209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>774</v>
       </c>
@@ -10230,7 +10223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>774</v>
       </c>
@@ -10244,7 +10237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>774</v>
       </c>
@@ -10258,7 +10251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>774</v>
       </c>
@@ -10272,7 +10265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
         <v>762</v>
       </c>
@@ -10286,7 +10279,7 @@
         <v>0.28571000000000002</v>
       </c>
     </row>
-    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>762</v>
       </c>
@@ -10300,7 +10293,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>762</v>
       </c>
@@ -10314,7 +10307,7 @@
         <v>70.796459999999996</v>
       </c>
     </row>
-    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>762</v>
       </c>
@@ -10328,7 +10321,7 @@
         <v>83.333330000000004</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>760</v>
       </c>
@@ -10342,7 +10335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>760</v>
       </c>
@@ -10356,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>760</v>
       </c>
@@ -10370,7 +10363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>760</v>
       </c>
@@ -10384,7 +10377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>762</v>
       </c>
@@ -10398,7 +10391,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>762</v>
       </c>
@@ -10412,7 +10405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>762</v>
       </c>
@@ -10426,7 +10419,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>762</v>
       </c>
@@ -10440,7 +10433,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
         <v>762</v>
       </c>
@@ -10454,7 +10447,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>764</v>
       </c>
@@ -10468,7 +10461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>764</v>
       </c>
@@ -10482,7 +10475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
         <v>764</v>
       </c>
@@ -10496,7 +10489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>764</v>
       </c>
@@ -10510,7 +10503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>762</v>
       </c>
@@ -10524,7 +10517,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>762</v>
       </c>
@@ -10538,7 +10531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>762</v>
       </c>
@@ -10552,7 +10545,7 @@
         <v>84.210520000000002</v>
       </c>
     </row>
-    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
         <v>762</v>
       </c>
@@ -10566,7 +10559,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>762</v>
       </c>
@@ -10580,7 +10573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>762</v>
       </c>
@@ -10594,7 +10587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>762</v>
       </c>
@@ -10608,7 +10601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>762</v>
       </c>
@@ -10622,7 +10615,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>762</v>
       </c>
@@ -10636,7 +10629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
         <v>762</v>
       </c>
@@ -10650,7 +10643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>762</v>
       </c>
@@ -10664,7 +10657,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>762</v>
       </c>
@@ -10678,7 +10671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="562" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>762</v>
       </c>
@@ -10692,7 +10685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="563" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>760</v>
       </c>
@@ -10706,7 +10699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
         <v>760</v>
       </c>
@@ -10720,7 +10713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
         <v>760</v>
       </c>
@@ -10734,7 +10727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
         <v>760</v>
       </c>
@@ -10748,7 +10741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
         <v>773</v>
       </c>
@@ -10762,7 +10755,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
         <v>773</v>
       </c>
@@ -10776,7 +10769,7 @@
         <v>66.666659999999993</v>
       </c>
     </row>
-    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
         <v>773</v>
       </c>
@@ -10790,7 +10783,7 @@
         <v>95.833330000000004</v>
       </c>
     </row>
-    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
         <v>773</v>
       </c>
@@ -10804,7 +10797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
         <v>777</v>
       </c>
@@ -10818,7 +10811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>777</v>
       </c>
@@ -10832,7 +10825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>777</v>
       </c>
@@ -10846,7 +10839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
         <v>777</v>
       </c>
@@ -10860,7 +10853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
         <v>760</v>
       </c>
@@ -10874,7 +10867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="576" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>760</v>
       </c>
@@ -10888,7 +10881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
         <v>760</v>
       </c>
@@ -10902,7 +10895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
         <v>760</v>
       </c>
@@ -10916,7 +10909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
         <v>762</v>
       </c>
@@ -10930,7 +10923,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
         <v>762</v>
       </c>
@@ -10944,7 +10937,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
         <v>762</v>
       </c>
@@ -10958,7 +10951,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
         <v>762</v>
       </c>
@@ -10972,7 +10965,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
         <v>762</v>
       </c>
@@ -10986,7 +10979,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
         <v>762</v>
       </c>
@@ -11000,7 +10993,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
         <v>762</v>
       </c>
@@ -11014,7 +11007,7 @@
         <v>76.991150000000005</v>
       </c>
     </row>
-    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
         <v>762</v>
       </c>
@@ -11028,7 +11021,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
         <v>766</v>
       </c>
@@ -11042,7 +11035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
         <v>766</v>
       </c>
@@ -11056,7 +11049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
         <v>766</v>
       </c>
@@ -11070,7 +11063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
         <v>766</v>
       </c>
@@ -11084,7 +11077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
         <v>766</v>
       </c>
@@ -11098,7 +11091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
         <v>762</v>
       </c>
@@ -11112,7 +11105,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
         <v>762</v>
       </c>
@@ -11126,7 +11119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
         <v>762</v>
       </c>
@@ -11140,7 +11133,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
         <v>762</v>
       </c>
@@ -11154,7 +11147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
         <v>775</v>
       </c>
@@ -11168,7 +11161,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
         <v>775</v>
       </c>
@@ -11182,7 +11175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
         <v>775</v>
       </c>
@@ -11196,7 +11189,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
         <v>775</v>
       </c>
@@ -11210,7 +11203,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
         <v>762</v>
       </c>
@@ -11224,7 +11217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
         <v>762</v>
       </c>
@@ -11238,7 +11231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
         <v>762</v>
       </c>
@@ -11252,7 +11245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
         <v>762</v>
       </c>
@@ -11266,7 +11259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
         <v>773</v>
       </c>
@@ -11280,7 +11273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
         <v>773</v>
       </c>
@@ -11294,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
         <v>773</v>
       </c>
@@ -11308,7 +11301,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
         <v>773</v>
       </c>
@@ -11322,7 +11315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
         <v>762</v>
       </c>
@@ -11336,7 +11329,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
         <v>762</v>
       </c>
@@ -11350,7 +11343,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
         <v>762</v>
       </c>
@@ -11364,7 +11357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
         <v>762</v>
       </c>
@@ -11378,7 +11371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
         <v>760</v>
       </c>
@@ -11392,7 +11385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
         <v>760</v>
       </c>
@@ -11406,7 +11399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
         <v>760</v>
       </c>
@@ -11420,7 +11413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
         <v>760</v>
       </c>
@@ -11434,7 +11427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
         <v>768</v>
       </c>
@@ -11448,7 +11441,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
         <v>768</v>
       </c>
@@ -11462,7 +11455,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
         <v>768</v>
       </c>
@@ -11476,7 +11469,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
         <v>768</v>
       </c>
@@ -11490,7 +11483,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="620" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
         <v>768</v>
       </c>
@@ -11504,7 +11497,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
         <v>774</v>
       </c>
@@ -11518,7 +11511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
         <v>774</v>
       </c>
@@ -11532,7 +11525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
         <v>774</v>
       </c>
@@ -11546,7 +11539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
         <v>774</v>
       </c>
@@ -11560,7 +11553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
         <v>770</v>
       </c>
@@ -11574,7 +11567,7 @@
         <v>83.333330000000004</v>
       </c>
     </row>
-    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="2" t="s">
         <v>770</v>
       </c>
@@ -11588,7 +11581,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
         <v>770</v>
       </c>
@@ -11602,7 +11595,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
         <v>770</v>
       </c>
@@ -11616,7 +11609,7 @@
         <v>88.88888</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
         <v>762</v>
       </c>
@@ -11630,7 +11623,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
         <v>762</v>
       </c>
@@ -11644,7 +11637,7 @@
         <v>66.666659999999993</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
         <v>762</v>
       </c>
@@ -11658,7 +11651,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
         <v>762</v>
       </c>
@@ -11672,7 +11665,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
         <v>771</v>
       </c>
@@ -11686,7 +11679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
         <v>771</v>
       </c>
@@ -11700,7 +11693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
         <v>771</v>
       </c>
@@ -11714,7 +11707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
         <v>771</v>
       </c>
@@ -11728,7 +11721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
         <v>771</v>
       </c>
@@ -11742,7 +11735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
         <v>762</v>
       </c>
@@ -11756,7 +11749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
         <v>762</v>
       </c>
@@ -11770,7 +11763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
         <v>762</v>
       </c>
@@ -11784,7 +11777,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
         <v>762</v>
       </c>
@@ -11798,7 +11791,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
         <v>764</v>
       </c>
@@ -11812,7 +11805,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="643" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
         <v>764</v>
       </c>
@@ -11826,7 +11819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
         <v>764</v>
       </c>
@@ -11840,7 +11833,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="645" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
         <v>764</v>
       </c>
@@ -11854,7 +11847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
         <v>764</v>
       </c>
@@ -11868,7 +11861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
         <v>764</v>
       </c>
@@ -11882,7 +11875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
         <v>764</v>
       </c>
@@ -11896,7 +11889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
         <v>777</v>
       </c>
@@ -11910,7 +11903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
         <v>777</v>
       </c>
@@ -11924,7 +11917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
         <v>777</v>
       </c>
@@ -11938,7 +11931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
         <v>777</v>
       </c>
@@ -11952,7 +11945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
         <v>776</v>
       </c>
@@ -11966,7 +11959,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="654" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
         <v>776</v>
       </c>
@@ -11980,7 +11973,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="655" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
         <v>776</v>
       </c>
@@ -11994,7 +11987,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="656" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
         <v>776</v>
       </c>
@@ -12008,7 +12001,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="657" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="2" t="s">
         <v>760</v>
       </c>
@@ -12022,7 +12015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="2" t="s">
         <v>760</v>
       </c>
@@ -12036,7 +12029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="2" t="s">
         <v>760</v>
       </c>
@@ -12050,7 +12043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="2" t="s">
         <v>760</v>
       </c>
@@ -12064,7 +12057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="2" t="s">
         <v>764</v>
       </c>
@@ -12078,7 +12071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="662" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="2" t="s">
         <v>764</v>
       </c>
@@ -12092,7 +12085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="663" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="2" t="s">
         <v>764</v>
       </c>
@@ -12106,7 +12099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="664" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="2" t="s">
         <v>764</v>
       </c>
@@ -12120,7 +12113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="665" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="2" t="s">
         <v>768</v>
       </c>
@@ -12134,7 +12127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="666" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
         <v>768</v>
       </c>
@@ -12148,7 +12141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="667" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="2" t="s">
         <v>768</v>
       </c>
@@ -12162,7 +12155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="668" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
         <v>768</v>
       </c>
@@ -12176,7 +12169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="669" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
         <v>768</v>
       </c>
@@ -12190,7 +12183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="670" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="2" t="s">
         <v>762</v>
       </c>
@@ -12204,7 +12197,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="671" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="2" t="s">
         <v>762</v>
       </c>
@@ -12218,7 +12211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="672" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="2" t="s">
         <v>762</v>
       </c>
@@ -12232,7 +12225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="673" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" s="2" t="s">
         <v>762</v>
       </c>
@@ -12246,7 +12239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="674" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" s="2" t="s">
         <v>762</v>
       </c>
@@ -12260,7 +12253,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="675" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
         <v>762</v>
       </c>
@@ -12274,7 +12267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="676" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
         <v>762</v>
       </c>
@@ -12288,7 +12281,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="677" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" s="2" t="s">
         <v>762</v>
       </c>
@@ -12302,7 +12295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="678" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" s="2" t="s">
         <v>773</v>
       </c>
@@ -12316,7 +12309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" s="2" t="s">
         <v>773</v>
       </c>
@@ -12330,7 +12323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" s="2" t="s">
         <v>773</v>
       </c>
@@ -12344,7 +12337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="681" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" s="2" t="s">
         <v>773</v>
       </c>
@@ -12358,7 +12351,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="682" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" s="2" t="s">
         <v>762</v>
       </c>
@@ -12372,7 +12365,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="683" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" s="2" t="s">
         <v>762</v>
       </c>
@@ -12386,7 +12379,7 @@
         <v>94.736840000000001</v>
       </c>
     </row>
-    <row r="684" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="s">
         <v>762</v>
       </c>
@@ -12400,7 +12393,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="685" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="s">
         <v>762</v>
       </c>
@@ -12414,7 +12407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="686" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="s">
         <v>762</v>
       </c>
@@ -12428,7 +12421,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="687" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="s">
         <v>762</v>
       </c>
@@ -12442,7 +12435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="688" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
         <v>762</v>
       </c>
@@ -12456,7 +12449,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="689" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="s">
         <v>762</v>
       </c>
@@ -12470,7 +12463,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="690" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
         <v>762</v>
       </c>
@@ -12484,7 +12477,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="691" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="s">
         <v>767</v>
       </c>
@@ -12498,7 +12491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" s="2" t="s">
         <v>767</v>
       </c>
@@ -12512,7 +12505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="s">
         <v>767</v>
       </c>
@@ -12526,7 +12519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" s="2" t="s">
         <v>767</v>
       </c>
@@ -12540,7 +12533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="s">
         <v>773</v>
       </c>
@@ -12554,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="s">
         <v>773</v>
       </c>
@@ -12568,7 +12561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" s="2" t="s">
         <v>773</v>
       </c>
@@ -12582,7 +12575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" s="2" t="s">
         <v>773</v>
       </c>
@@ -12596,7 +12589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" s="2" t="s">
         <v>768</v>
       </c>
@@ -12610,7 +12603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="700" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" s="2" t="s">
         <v>768</v>
       </c>
@@ -12624,7 +12617,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="701" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" s="2" t="s">
         <v>768</v>
       </c>
@@ -12638,7 +12631,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="702" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" s="2" t="s">
         <v>768</v>
       </c>
@@ -12652,7 +12645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="703" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" s="2" t="s">
         <v>761</v>
       </c>
@@ -12666,7 +12659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" s="2" t="s">
         <v>761</v>
       </c>
@@ -12680,7 +12673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" s="2" t="s">
         <v>761</v>
       </c>
@@ -12694,7 +12687,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="706" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" s="2" t="s">
         <v>761</v>
       </c>
@@ -12708,7 +12701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" s="2" t="s">
         <v>773</v>
       </c>
@@ -12722,7 +12715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="708" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" s="2" t="s">
         <v>773</v>
       </c>
@@ -12736,7 +12729,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="709" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" s="2" t="s">
         <v>773</v>
       </c>
@@ -12750,7 +12743,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="710" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" s="2" t="s">
         <v>773</v>
       </c>
@@ -12764,7 +12757,7 @@
         <v>66.666659999999993</v>
       </c>
     </row>
-    <row r="711" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" s="2" t="s">
         <v>760</v>
       </c>
@@ -12778,7 +12771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="712" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" s="2" t="s">
         <v>760</v>
       </c>
@@ -12792,7 +12785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="713" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" s="2" t="s">
         <v>760</v>
       </c>
@@ -12806,7 +12799,7 @@
         <v>83.333330000000004</v>
       </c>
     </row>
-    <row r="714" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" s="2" t="s">
         <v>760</v>
       </c>
@@ -12820,7 +12813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" s="2" t="s">
         <v>768</v>
       </c>
@@ -12834,7 +12827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" s="2" t="s">
         <v>768</v>
       </c>
@@ -12848,7 +12841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" s="2" t="s">
         <v>768</v>
       </c>
@@ -12862,7 +12855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" s="2" t="s">
         <v>768</v>
       </c>
@@ -12876,7 +12869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" s="2" t="s">
         <v>768</v>
       </c>
@@ -12890,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" s="2" t="s">
         <v>768</v>
       </c>
@@ -12904,7 +12897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" s="2" t="s">
         <v>768</v>
       </c>
@@ -12918,7 +12911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" s="2" t="s">
         <v>768</v>
       </c>
@@ -12932,7 +12925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" s="2" t="s">
         <v>770</v>
       </c>
@@ -12946,7 +12939,7 @@
         <v>72.222219999999993</v>
       </c>
     </row>
-    <row r="724" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" s="2" t="s">
         <v>770</v>
       </c>
@@ -12960,7 +12953,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="725" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" s="2" t="s">
         <v>770</v>
       </c>
@@ -12974,7 +12967,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="726" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" s="2" t="s">
         <v>770</v>
       </c>
@@ -12988,7 +12981,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="727" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" s="2" t="s">
         <v>773</v>
       </c>
@@ -13002,7 +12995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" s="2" t="s">
         <v>773</v>
       </c>
@@ -13016,7 +13009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" s="2" t="s">
         <v>773</v>
       </c>
@@ -13030,7 +13023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="730" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" s="2" t="s">
         <v>773</v>
       </c>
@@ -13044,7 +13037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" s="2" t="s">
         <v>762</v>
       </c>
@@ -13058,7 +13051,7 @@
         <v>91.28</v>
       </c>
     </row>
-    <row r="732" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" s="2" t="s">
         <v>762</v>
       </c>
@@ -13072,7 +13065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" s="2" t="s">
         <v>762</v>
       </c>
@@ -13086,7 +13079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" s="2" t="s">
         <v>762</v>
       </c>
@@ -13100,7 +13093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" s="2" t="s">
         <v>777</v>
       </c>
@@ -13114,7 +13107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" s="2" t="s">
         <v>777</v>
       </c>
@@ -13128,7 +13121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" s="2" t="s">
         <v>777</v>
       </c>
@@ -13142,7 +13135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" s="2" t="s">
         <v>777</v>
       </c>
@@ -13156,7 +13149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" s="2" t="s">
         <v>762</v>
       </c>
@@ -13170,7 +13163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="740" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" s="2" t="s">
         <v>762</v>
       </c>
@@ -13184,7 +13177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="741" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" s="2" t="s">
         <v>762</v>
       </c>
@@ -13198,7 +13191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" s="2" t="s">
         <v>762</v>
       </c>
@@ -13212,7 +13205,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="743" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" s="2" t="s">
         <v>762</v>
       </c>
@@ -13226,7 +13219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" s="2" t="s">
         <v>762</v>
       </c>
@@ -13240,7 +13233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" s="2" t="s">
         <v>762</v>
       </c>
@@ -13254,7 +13247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" s="2" t="s">
         <v>762</v>
       </c>
@@ -13268,7 +13261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" s="2" t="s">
         <v>763</v>
       </c>
@@ -13282,7 +13275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="748" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" s="2" t="s">
         <v>763</v>
       </c>
@@ -13296,7 +13289,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="749" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" s="2" t="s">
         <v>763</v>
       </c>
@@ -13310,7 +13303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="750" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" s="2" t="s">
         <v>763</v>
       </c>
@@ -13324,7 +13317,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="751" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" s="2" t="s">
         <v>772</v>
       </c>
@@ -13338,7 +13331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" s="2" t="s">
         <v>772</v>
       </c>
@@ -13352,7 +13345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" s="2" t="s">
         <v>772</v>
       </c>
@@ -13366,7 +13359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" s="2" t="s">
         <v>772</v>
       </c>
@@ -13380,7 +13373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" s="2" t="s">
         <v>762</v>
       </c>
@@ -13394,7 +13387,7 @@
         <v>70.796459999999996</v>
       </c>
     </row>
-    <row r="756" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756" s="2" t="s">
         <v>762</v>
       </c>
@@ -13408,7 +13401,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="757" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" s="2" t="s">
         <v>762</v>
       </c>
@@ -13422,7 +13415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="758" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" s="2" t="s">
         <v>762</v>
       </c>
@@ -13436,7 +13429,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="759" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" s="2" t="s">
         <v>760</v>
       </c>
@@ -13450,7 +13443,7 @@
         <v>66.666659999999993</v>
       </c>
     </row>
-    <row r="760" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" s="2" t="s">
         <v>760</v>
       </c>
@@ -13464,7 +13457,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="761" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" s="2" t="s">
         <v>760</v>
       </c>
@@ -13478,7 +13471,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="762" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762" s="2" t="s">
         <v>760</v>
       </c>
@@ -13492,7 +13485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="763" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763" s="2" t="s">
         <v>762</v>
       </c>
@@ -13506,7 +13499,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="764" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" s="2" t="s">
         <v>762</v>
       </c>
@@ -13520,7 +13513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="765" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765" s="2" t="s">
         <v>762</v>
       </c>
@@ -13534,7 +13527,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="766" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" s="2" t="s">
         <v>762</v>
       </c>
@@ -13548,7 +13541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="767" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" s="2" t="s">
         <v>772</v>
       </c>
@@ -13562,7 +13555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" s="2" t="s">
         <v>772</v>
       </c>
@@ -13576,7 +13569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" s="2" t="s">
         <v>772</v>
       </c>
@@ -13590,7 +13583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770" s="2" t="s">
         <v>772</v>
       </c>
@@ -13604,7 +13597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771" s="2" t="s">
         <v>762</v>
       </c>
@@ -13618,7 +13611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772" s="2" t="s">
         <v>762</v>
       </c>
@@ -13632,7 +13625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773" s="2" t="s">
         <v>762</v>
       </c>
@@ -13646,7 +13639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774" s="2" t="s">
         <v>762</v>
       </c>
@@ -13660,7 +13653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775" s="2" t="s">
         <v>766</v>
       </c>
@@ -13674,7 +13667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776" s="2" t="s">
         <v>766</v>
       </c>
@@ -13688,7 +13681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777" s="2" t="s">
         <v>766</v>
       </c>
@@ -13702,7 +13695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A778" s="2" t="s">
         <v>766</v>
       </c>
@@ -13716,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779" s="2" t="s">
         <v>766</v>
       </c>
@@ -13730,7 +13723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A780" s="2" t="s">
         <v>766</v>
       </c>
@@ -13744,7 +13737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A781" s="2" t="s">
         <v>766</v>
       </c>
@@ -13758,7 +13751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A782" s="2" t="s">
         <v>766</v>
       </c>
@@ -13772,7 +13765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A783" s="2" t="s">
         <v>762</v>
       </c>
@@ -13786,7 +13779,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="784" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A784" s="2" t="s">
         <v>762</v>
       </c>
@@ -13800,7 +13793,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="785" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785" s="2" t="s">
         <v>762</v>
       </c>
@@ -13814,7 +13807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="786" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786" s="2" t="s">
         <v>762</v>
       </c>
@@ -13828,7 +13821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="787" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787" s="2" t="s">
         <v>760</v>
       </c>
@@ -13842,7 +13835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="788" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" s="2" t="s">
         <v>760</v>
       </c>
@@ -13856,7 +13849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="789" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789" s="2" t="s">
         <v>760</v>
       </c>
@@ -13870,7 +13863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790" s="2" t="s">
         <v>760</v>
       </c>
@@ -13884,7 +13877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="791" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791" s="2" t="s">
         <v>760</v>
       </c>
@@ -13898,7 +13891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="792" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" s="2" t="s">
         <v>762</v>
       </c>
@@ -13912,7 +13905,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="793" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793" s="2" t="s">
         <v>762</v>
       </c>
@@ -13926,7 +13919,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="794" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794" s="2" t="s">
         <v>762</v>
       </c>
@@ -13940,7 +13933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795" s="2" t="s">
         <v>762</v>
       </c>
@@ -13954,7 +13947,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="796" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796" s="2" t="s">
         <v>762</v>
       </c>
@@ -13968,7 +13961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="797" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A797" s="2" t="s">
         <v>762</v>
       </c>
@@ -13982,7 +13975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="798" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798" s="2" t="s">
         <v>762</v>
       </c>
@@ -13996,7 +13989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="799" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799" s="2" t="s">
         <v>762</v>
       </c>
@@ -14010,7 +14003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="800" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800" s="2" t="s">
         <v>761</v>
       </c>
@@ -14024,7 +14017,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="801" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A801" s="2" t="s">
         <v>761</v>
       </c>
@@ -14038,7 +14031,7 @@
         <v>63.157890000000002</v>
       </c>
     </row>
-    <row r="802" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A802" s="2" t="s">
         <v>761</v>
       </c>
@@ -14052,7 +14045,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="803" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A803" s="2" t="s">
         <v>761</v>
       </c>
@@ -14066,7 +14059,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="804" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A804" s="2" t="s">
         <v>764</v>
       </c>
@@ -14080,7 +14073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="805" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A805" s="2" t="s">
         <v>764</v>
       </c>
@@ -14094,7 +14087,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="806" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A806" s="2" t="s">
         <v>764</v>
       </c>
@@ -14108,7 +14101,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="807" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A807" s="2" t="s">
         <v>762</v>
       </c>
@@ -14122,7 +14115,7 @@
         <v>84.8</v>
       </c>
     </row>
-    <row r="808" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A808" s="2" t="s">
         <v>762</v>
       </c>
@@ -14136,7 +14129,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="809" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809" s="2" t="s">
         <v>762</v>
       </c>
@@ -14150,7 +14143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A810" s="2" t="s">
         <v>762</v>
       </c>
@@ -14164,7 +14157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="811" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A811" s="2" t="s">
         <v>762</v>
       </c>
@@ -14178,7 +14171,7 @@
         <v>97.666659999999993</v>
       </c>
     </row>
-    <row r="812" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A812" s="2" t="s">
         <v>763</v>
       </c>
@@ -14192,7 +14185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A813" s="2" t="s">
         <v>763</v>
       </c>
@@ -14206,7 +14199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A814" s="2" t="s">
         <v>763</v>
       </c>
@@ -14220,7 +14213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815" s="2" t="s">
         <v>763</v>
       </c>
@@ -14234,7 +14227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="816" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A816" s="2" t="s">
         <v>760</v>
       </c>
@@ -14248,7 +14241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A817" s="2" t="s">
         <v>760</v>
       </c>
@@ -14262,7 +14255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A818" s="2" t="s">
         <v>760</v>
       </c>
@@ -14276,7 +14269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819" s="2" t="s">
         <v>760</v>
       </c>
@@ -14290,7 +14283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="820" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820" s="2" t="s">
         <v>773</v>
       </c>
@@ -14304,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821" s="2" t="s">
         <v>773</v>
       </c>
@@ -14318,7 +14311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A822" s="2" t="s">
         <v>773</v>
       </c>
@@ -14332,7 +14325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A823" s="2" t="s">
         <v>773</v>
       </c>
@@ -14346,7 +14339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A824" s="2" t="s">
         <v>780</v>
       </c>
@@ -14360,7 +14353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A825" s="2" t="s">
         <v>780</v>
       </c>
@@ -14374,7 +14367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A826" s="2" t="s">
         <v>780</v>
       </c>
@@ -14388,7 +14381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A827" s="2" t="s">
         <v>780</v>
       </c>
@@ -14402,7 +14395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828" s="2" t="s">
         <v>780</v>
       </c>
@@ -14416,7 +14409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829" s="2" t="s">
         <v>767</v>
       </c>
@@ -14430,7 +14423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="830" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830" s="2" t="s">
         <v>767</v>
       </c>
@@ -14444,7 +14437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="831" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831" s="2" t="s">
         <v>767</v>
       </c>
@@ -14458,7 +14451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="832" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A832" s="2" t="s">
         <v>767</v>
       </c>
@@ -14472,7 +14465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="833" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A833" s="2" t="s">
         <v>762</v>
       </c>
@@ -14486,7 +14479,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="834" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A834" s="2" t="s">
         <v>762</v>
       </c>
@@ -14500,7 +14493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="835" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A835" s="2" t="s">
         <v>762</v>
       </c>
@@ -14514,7 +14507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="836" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A836" s="2" t="s">
         <v>762</v>
       </c>
@@ -14528,7 +14521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="837" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A837" s="2" t="s">
         <v>775</v>
       </c>
@@ -14542,7 +14535,7 @@
         <v>73.040000000000006</v>
       </c>
     </row>
-    <row r="838" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A838" s="2" t="s">
         <v>775</v>
       </c>
@@ -14556,7 +14549,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="839" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A839" s="2" t="s">
         <v>775</v>
       </c>
@@ -14570,7 +14563,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="840" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A840" s="2" t="s">
         <v>775</v>
       </c>
@@ -14584,7 +14577,7 @@
         <v>71.428569999999993</v>
       </c>
     </row>
-    <row r="841" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A841" s="2" t="s">
         <v>766</v>
       </c>
@@ -14598,7 +14591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A842" s="2" t="s">
         <v>766</v>
       </c>
@@ -14612,7 +14605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A843" s="2" t="s">
         <v>766</v>
       </c>
@@ -14626,7 +14619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A844" s="2" t="s">
         <v>766</v>
       </c>
@@ -14640,7 +14633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A845" s="2" t="s">
         <v>767</v>
       </c>
@@ -14654,7 +14647,7 @@
         <v>88.88888</v>
       </c>
     </row>
-    <row r="846" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A846" s="2" t="s">
         <v>767</v>
       </c>
@@ -14668,7 +14661,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="847" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A847" s="2" t="s">
         <v>767</v>
       </c>
@@ -14682,7 +14675,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="848" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A848" s="2" t="s">
         <v>767</v>
       </c>
@@ -14696,7 +14689,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="849" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A849" s="2" t="s">
         <v>762</v>
       </c>
@@ -14710,7 +14703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="850" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A850" s="2" t="s">
         <v>762</v>
       </c>
@@ -14724,7 +14717,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="851" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A851" s="2" t="s">
         <v>762</v>
       </c>
@@ -14738,7 +14731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="852" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A852" s="2" t="s">
         <v>762</v>
       </c>
@@ -14752,7 +14745,7 @@
         <v>13.08999</v>
       </c>
     </row>
-    <row r="853" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A853" s="2" t="s">
         <v>779</v>
       </c>
@@ -14766,7 +14759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="854" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A854" s="2" t="s">
         <v>779</v>
       </c>
@@ -14780,7 +14773,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="855" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A855" s="2" t="s">
         <v>779</v>
       </c>
@@ -14794,7 +14787,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="856" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A856" s="2" t="s">
         <v>779</v>
       </c>
@@ -14808,7 +14801,7 @@
         <v>83.333330000000004</v>
       </c>
     </row>
-    <row r="857" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A857" s="2" t="s">
         <v>779</v>
       </c>
@@ -14822,7 +14815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="858" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A858" s="2" t="s">
         <v>768</v>
       </c>
@@ -14836,7 +14829,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="859" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A859" s="2" t="s">
         <v>768</v>
       </c>
@@ -14850,7 +14843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="860" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A860" s="2" t="s">
         <v>768</v>
       </c>
@@ -14864,7 +14857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="861" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A861" s="2" t="s">
         <v>768</v>
       </c>
@@ -14878,7 +14871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="862" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A862" s="2" t="s">
         <v>768</v>
       </c>
@@ -14892,7 +14885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="863" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A863" s="2" t="s">
         <v>762</v>
       </c>
@@ -14906,7 +14899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="864" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A864" s="2" t="s">
         <v>762</v>
       </c>
@@ -14920,7 +14913,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="865" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A865" s="2" t="s">
         <v>762</v>
       </c>
@@ -14934,7 +14927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A866" s="2" t="s">
         <v>762</v>
       </c>
@@ -14948,7 +14941,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="867" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A867" s="2" t="s">
         <v>762</v>
       </c>
@@ -14962,7 +14955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A868" s="2" t="s">
         <v>762</v>
       </c>
@@ -14976,7 +14969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A869" s="2" t="s">
         <v>762</v>
       </c>
@@ -14990,7 +14983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A870" s="2" t="s">
         <v>762</v>
       </c>
@@ -15004,7 +14997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A871" s="2" t="s">
         <v>760</v>
       </c>
@@ -15018,7 +15011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="872" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A872" s="2" t="s">
         <v>760</v>
       </c>
@@ -15032,7 +15025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="873" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A873" s="2" t="s">
         <v>760</v>
       </c>
@@ -15046,7 +15039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="874" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A874" s="2" t="s">
         <v>760</v>
       </c>
@@ -15060,7 +15053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="875" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A875" s="2" t="s">
         <v>766</v>
       </c>
@@ -15074,7 +15067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A876" s="2" t="s">
         <v>766</v>
       </c>
@@ -15088,7 +15081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A877" s="2" t="s">
         <v>766</v>
       </c>
@@ -15102,7 +15095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A878" s="2" t="s">
         <v>766</v>
       </c>
@@ -15116,7 +15109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A879" s="2" t="s">
         <v>766</v>
       </c>
@@ -15130,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A880" s="2" t="s">
         <v>762</v>
       </c>
@@ -15144,7 +15137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="881" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A881" s="2" t="s">
         <v>762</v>
       </c>
@@ -15158,7 +15151,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="882" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A882" s="2" t="s">
         <v>762</v>
       </c>
@@ -15172,7 +15165,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="883" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A883" s="2" t="s">
         <v>762</v>
       </c>
@@ -15186,7 +15179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="884" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A884" s="2" t="s">
         <v>768</v>
       </c>
@@ -15200,7 +15193,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="885" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A885" s="2" t="s">
         <v>768</v>
       </c>
@@ -15214,7 +15207,7 @@
         <v>55.555549999999997</v>
       </c>
     </row>
-    <row r="886" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A886" s="2" t="s">
         <v>768</v>
       </c>
@@ -15228,7 +15221,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="887" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A887" s="2" t="s">
         <v>768</v>
       </c>
@@ -15242,7 +15235,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="888" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A888" s="2" t="s">
         <v>768</v>
       </c>
@@ -15256,7 +15249,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="889" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A889" s="2" t="s">
         <v>762</v>
       </c>
@@ -15270,7 +15263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="890" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A890" s="2" t="s">
         <v>762</v>
       </c>
@@ -15284,7 +15277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A891" s="2" t="s">
         <v>762</v>
       </c>
@@ -15298,7 +15291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A892" s="2" t="s">
         <v>762</v>
       </c>
@@ -15312,7 +15305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A893" s="2" t="s">
         <v>762</v>
       </c>
@@ -15326,7 +15319,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="894" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A894" s="2" t="s">
         <v>762</v>
       </c>
@@ -15340,7 +15333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A895" s="2" t="s">
         <v>762</v>
       </c>
@@ -15354,7 +15347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="896" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A896" s="2" t="s">
         <v>762</v>
       </c>
@@ -15368,7 +15361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A897" s="2" t="s">
         <v>762</v>
       </c>
@@ -15382,7 +15375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A898" s="2" t="s">
         <v>762</v>
       </c>
@@ -15396,7 +15389,7 @@
         <v>89.8</v>
       </c>
     </row>
-    <row r="899" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A899" s="2" t="s">
         <v>762</v>
       </c>
@@ -15410,7 +15403,7 @@
         <v>89.473680000000002</v>
       </c>
     </row>
-    <row r="900" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A900" s="2" t="s">
         <v>762</v>
       </c>
@@ -15424,7 +15417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="901" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A901" s="2" t="s">
         <v>762</v>
       </c>
@@ -15438,7 +15431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="902" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A902" s="2" t="s">
         <v>762</v>
       </c>
@@ -15452,7 +15445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="903" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A903" s="2" t="s">
         <v>760</v>
       </c>
@@ -15466,7 +15459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A904" s="2" t="s">
         <v>760</v>
       </c>
@@ -15480,7 +15473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A905" s="2" t="s">
         <v>760</v>
       </c>
@@ -15494,7 +15487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A906" s="2" t="s">
         <v>760</v>
       </c>
@@ -15508,7 +15501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A907" s="2" t="s">
         <v>763</v>
       </c>
@@ -15522,7 +15515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A908" s="2" t="s">
         <v>763</v>
       </c>
@@ -15536,7 +15529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A909" s="2" t="s">
         <v>763</v>
       </c>
@@ -15550,7 +15543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="910" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A910" s="2" t="s">
         <v>763</v>
       </c>
@@ -15564,7 +15557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A911" s="2" t="s">
         <v>772</v>
       </c>
@@ -15578,7 +15571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="912" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A912" s="2" t="s">
         <v>772</v>
       </c>
@@ -15592,7 +15585,7 @@
         <v>16.66666</v>
       </c>
     </row>
-    <row r="913" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A913" s="2" t="s">
         <v>772</v>
       </c>
@@ -15606,7 +15599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="914" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A914" s="2" t="s">
         <v>772</v>
       </c>
@@ -15620,7 +15613,7 @@
         <v>20.83333</v>
       </c>
     </row>
-    <row r="915" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A915" s="2" t="s">
         <v>768</v>
       </c>
@@ -15634,7 +15627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="916" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A916" s="2" t="s">
         <v>768</v>
       </c>
@@ -15648,7 +15641,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="917" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A917" s="2" t="s">
         <v>768</v>
       </c>
@@ -15662,7 +15655,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="918" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A918" s="2" t="s">
         <v>768</v>
       </c>
@@ -15676,9 +15669,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="919" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A919" t="e">
-        <v>#VALUE!</v>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A919" s="2" t="s">
+        <v>768</v>
       </c>
       <c r="B919" s="2" t="s">
         <v>133</v>
@@ -15690,7 +15683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="920" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A920" s="2" t="s">
         <v>764</v>
       </c>
@@ -15704,7 +15697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A921" s="2" t="s">
         <v>764</v>
       </c>
@@ -15718,7 +15711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A922" s="2" t="s">
         <v>764</v>
       </c>
@@ -15732,7 +15725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A923" s="2" t="s">
         <v>764</v>
       </c>
@@ -15746,9 +15739,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A924" s="2" t="s">
         <v>762</v>
+      </c>
+      <c r="B924" t="s">
+        <v>783</v>
       </c>
       <c r="C924" s="2" t="s">
         <v>170</v>
@@ -15757,9 +15753,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="925" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A925" s="2" t="s">
         <v>762</v>
+      </c>
+      <c r="B925" t="s">
+        <v>783</v>
       </c>
       <c r="C925" s="2" t="s">
         <v>88</v>
@@ -15768,9 +15767,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="926" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A926" s="2" t="s">
         <v>762</v>
+      </c>
+      <c r="B926" t="s">
+        <v>783</v>
       </c>
       <c r="C926" s="2" t="s">
         <v>89</v>
